--- a/excel/finished/wg8#高炉/变料记录表.xlsx
+++ b/excel/finished/wg8#高炉/变料记录表.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZYSD 11\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBFF33D-19FE-4818-93F4-98ED65E106D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="高炉变料记录报表" sheetId="1" r:id="rId1"/>
-    <sheet name="_lukuang_day_shift" sheetId="2" r:id="rId2"/>
+    <sheet name="_lukuang_day_all" sheetId="2" r:id="rId2"/>
     <sheet name="_metadata" sheetId="3" r:id="rId3"/>
     <sheet name="_dictionary" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -263,8 +275,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -987,21 +999,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AC20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7:R7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V31" sqref="V31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="7.625" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="5.625" customWidth="1"/>
@@ -1013,7 +1025,7 @@
     <col min="29" max="29" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" ht="30.6" customHeight="1">
+    <row r="1" spans="2:29" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
@@ -1042,12 +1054,12 @@
       <c r="Y1" s="32"/>
       <c r="Z1" s="32"/>
     </row>
-    <row r="2" spans="2:29" ht="14.25" thickBot="1">
+    <row r="2" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="P2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:29" ht="21.95" customHeight="1" thickTop="1">
+    <row r="3" spans="2:29" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B3" s="31" t="s">
         <v>1</v>
       </c>
@@ -1078,7 +1090,7 @@
       <c r="Y3" s="12"/>
       <c r="Z3" s="13"/>
     </row>
-    <row r="4" spans="2:29" ht="14.25">
+    <row r="4" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
       <c r="C4" s="2">
         <v>1</v>
@@ -1135,7 +1147,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="2:29">
+    <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1156,29 +1168,29 @@
         <v>21</v>
       </c>
       <c r="Q5" s="9" t="str">
-        <f>IF(_lukuang_day_shift!A2="","",_lukuang_day_shift!A2)</f>
+        <f>IF(_lukuang_day_all!A2="","",_lukuang_day_all!A2)</f>
         <v/>
       </c>
       <c r="R5" s="10"/>
       <c r="S5" s="9"/>
       <c r="T5" s="10"/>
       <c r="U5" s="9" t="str">
-        <f>IF(_lukuang_day_shift!C2="","",_lukuang_day_shift!C2)</f>
+        <f>IF(_lukuang_day_all!C2="","",_lukuang_day_all!C2)</f>
         <v/>
       </c>
       <c r="V5" s="10"/>
       <c r="W5" s="9" t="str">
-        <f>IF(_lukuang_day_shift!D2="","",_lukuang_day_shift!D2)</f>
+        <f>IF(_lukuang_day_all!D2="","",_lukuang_day_all!D2)</f>
         <v/>
       </c>
       <c r="X5" s="10"/>
       <c r="Y5" s="2" t="str">
-        <f>IF(_lukuang_day_shift!E2="","",_lukuang_day_shift!E2)</f>
+        <f>IF(_lukuang_day_all!E2="","",_lukuang_day_all!E2)</f>
         <v/>
       </c>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="2:29">
+    <row r="6" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1199,24 +1211,24 @@
         <v>22</v>
       </c>
       <c r="Q6" s="9" t="str">
-        <f>IF(_lukuang_day_shift!A3="","",_lukuang_day_shift!A3)</f>
+        <f>IF(_lukuang_day_all!A3="","",_lukuang_day_all!A3)</f>
         <v/>
       </c>
       <c r="R6" s="10"/>
       <c r="S6" s="9"/>
       <c r="T6" s="10"/>
       <c r="U6" s="9" t="str">
-        <f>IF(_lukuang_day_shift!C3="","",_lukuang_day_shift!C3)</f>
+        <f>IF(_lukuang_day_all!C3="","",_lukuang_day_all!C3)</f>
         <v/>
       </c>
       <c r="V6" s="10"/>
       <c r="W6" s="9" t="str">
-        <f>IF(_lukuang_day_shift!D3="","",_lukuang_day_shift!D3)</f>
+        <f>IF(_lukuang_day_all!D3="","",_lukuang_day_all!D3)</f>
         <v/>
       </c>
       <c r="X6" s="10"/>
       <c r="Y6" s="8" t="str">
-        <f>IF(_lukuang_day_shift!E3="","",_lukuang_day_shift!E3)</f>
+        <f>IF(_lukuang_day_all!E3="","",_lukuang_day_all!E3)</f>
         <v/>
       </c>
       <c r="Z6" s="3"/>
@@ -1224,7 +1236,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="2:29">
+    <row r="7" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1245,29 +1257,29 @@
         <v>23</v>
       </c>
       <c r="Q7" s="9" t="str">
-        <f>IF(_lukuang_day_shift!A4="","",_lukuang_day_shift!A4)</f>
+        <f>IF(_lukuang_day_all!A4="","",_lukuang_day_all!A4)</f>
         <v/>
       </c>
       <c r="R7" s="10"/>
       <c r="S7" s="9"/>
       <c r="T7" s="10"/>
       <c r="U7" s="9" t="str">
-        <f>IF(_lukuang_day_shift!C4="","",_lukuang_day_shift!C4)</f>
+        <f>IF(_lukuang_day_all!C4="","",_lukuang_day_all!C4)</f>
         <v/>
       </c>
       <c r="V7" s="10"/>
       <c r="W7" s="9" t="str">
-        <f>IF(_lukuang_day_shift!D4="","",_lukuang_day_shift!D4)</f>
+        <f>IF(_lukuang_day_all!D4="","",_lukuang_day_all!D4)</f>
         <v/>
       </c>
       <c r="X7" s="10"/>
       <c r="Y7" s="8" t="str">
-        <f>IF(_lukuang_day_shift!E4="","",_lukuang_day_shift!E4)</f>
+        <f>IF(_lukuang_day_all!E4="","",_lukuang_day_all!E4)</f>
         <v/>
       </c>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="2:29" ht="14.25">
+    <row r="8" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1304,7 +1316,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="2:29" ht="14.25" thickBot="1">
+    <row r="9" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1335,7 +1347,7 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="6"/>
     </row>
-    <row r="10" spans="2:29" ht="15" thickTop="1">
+    <row r="10" spans="2:29" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1374,7 +1386,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="2:29">
+    <row r="11" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1423,7 +1435,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="2:29" ht="14.25">
+    <row r="12" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1460,7 +1472,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:29">
+    <row r="13" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1491,7 +1503,7 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" spans="2:29">
+    <row r="14" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1526,7 +1538,7 @@
       </c>
       <c r="AC14" s="11"/>
     </row>
-    <row r="15" spans="2:29">
+    <row r="15" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1567,7 +1579,7 @@
       <c r="AB15" s="11"/>
       <c r="AC15" s="11"/>
     </row>
-    <row r="16" spans="2:29">
+    <row r="16" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
@@ -1596,7 +1608,7 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17" spans="2:26">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
@@ -1625,7 +1637,7 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18" spans="2:26">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
@@ -1654,7 +1666,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19" spans="2:26" ht="14.25" thickBot="1">
+    <row r="19" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>15</v>
       </c>
@@ -1683,7 +1695,7 @@
       <c r="Y19" s="5"/>
       <c r="Z19" s="6"/>
     </row>
-    <row r="20" spans="2:26" ht="14.25" thickTop="1"/>
+    <row r="20" spans="2:26" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="34">
     <mergeCell ref="B3:O3"/>
@@ -1728,16 +1740,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -1758,12 +1770,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1771,16 +1783,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>47</v>
       </c>
